--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -13,12 +13,12 @@
     <sheet name="mlp" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="knn_1" localSheetId="0">knn!$A$2:$B$11</definedName>
-    <definedName name="mlp_1" localSheetId="3">mlp!$A$2:$B$11</definedName>
-    <definedName name="nb_1" localSheetId="2">nb!$A$2:$B$4</definedName>
-    <definedName name="svm_lin_1" localSheetId="1">svm!$A$3:$B$12</definedName>
-    <definedName name="svm_nu_1" localSheetId="1">svm!$A$35:$B$38</definedName>
-    <definedName name="svm_rbf_1" localSheetId="1">svm!$A$19:$B$28</definedName>
+    <definedName name="knn" localSheetId="0">knn!$A$2:$B$11</definedName>
+    <definedName name="mlp" localSheetId="3">mlp!$A$2:$B$11</definedName>
+    <definedName name="nb" localSheetId="2">nb!$A$2:$B$4</definedName>
+    <definedName name="svm_lin" localSheetId="1">svm!$A$3:$B$12</definedName>
+    <definedName name="svm_nu" localSheetId="1">svm!$A$35:$B$38</definedName>
+    <definedName name="svm_rbf" localSheetId="1">svm!$A$19:$B$28</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -336,6 +336,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>knn!$A$2:$A$11</c:f>
@@ -382,34 +440,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.151515151515101</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.1212121212121</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.151515151515101</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.161616161616099</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.191919191919101</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,7 +475,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -425,12 +483,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-712249088"/>
-        <c:axId val="-712240384"/>
+        <c:axId val="611967072"/>
+        <c:axId val="199951584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-712249088"/>
+        <c:axId val="611967072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712240384"/>
+        <c:crossAx val="199951584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712240384"/>
+        <c:axId val="199951584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712249088"/>
+        <c:crossAx val="611967072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -826,6 +884,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>svm!$A$3:$A$12</c:f>
@@ -872,34 +988,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.141414141414099</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.2222222222222</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.292929292929198</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.2424242424242</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.191919191919101</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +1023,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -915,12 +1031,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-804403536"/>
-        <c:axId val="-804402992"/>
+        <c:axId val="199952672"/>
+        <c:axId val="199959744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-804403536"/>
+        <c:axId val="199952672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804402992"/>
+        <c:crossAx val="199959744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804402992"/>
+        <c:axId val="199959744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804403536"/>
+        <c:crossAx val="199952672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,6 +1430,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>svm!$A$19:$A$28</c:f>
@@ -1360,34 +1534,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.2424242424242</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1569,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1403,12 +1577,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-804411152"/>
-        <c:axId val="-804431824"/>
+        <c:axId val="524049120"/>
+        <c:axId val="524049664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-804411152"/>
+        <c:axId val="524049120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804431824"/>
+        <c:crossAx val="524049664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804431824"/>
+        <c:axId val="524049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804411152"/>
+        <c:crossAx val="524049120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1882,16 +2056,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.2121212121212</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.2424242424242</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.202020202020201</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.2424242424242</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,12 +2081,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-804405712"/>
-        <c:axId val="-804414960"/>
+        <c:axId val="521613120"/>
+        <c:axId val="521614208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-804405712"/>
+        <c:axId val="521613120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804414960"/>
+        <c:crossAx val="521614208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804414960"/>
+        <c:axId val="521614208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804405712"/>
+        <c:crossAx val="521613120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,13 +2562,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27.272727272727199</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.2222222222222</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.141414141414099</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,12 +2584,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:shape val="box"/>
-        <c:axId val="-842361024"/>
-        <c:axId val="-842368640"/>
+        <c:axId val="238297856"/>
+        <c:axId val="238303296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-842361024"/>
+        <c:axId val="238297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +2632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-842368640"/>
+        <c:crossAx val="238303296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2466,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-842368640"/>
+        <c:axId val="238303296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-842361024"/>
+        <c:crossAx val="238297856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,6 +2933,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>mlp!$A$2:$A$11</c:f>
@@ -2805,34 +3037,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.202020202020201</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.171717171717098</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.2222222222222</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.141414141414099</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.2424242424242</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.202020202020201</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.151515151515101</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.181818181818102</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.1313131313131</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +3072,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2848,12 +3080,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-804425296"/>
-        <c:axId val="-804416048"/>
+        <c:axId val="440994064"/>
+        <c:axId val="616666240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-804425296"/>
+        <c:axId val="440994064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +3178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804416048"/>
+        <c:crossAx val="616666240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2954,7 +3186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804416048"/>
+        <c:axId val="616666240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804425296"/>
+        <c:crossAx val="440994064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6524,27 +6756,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="knn_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="knn" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_nu_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_nu" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_rbf_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_rbf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_lin_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="svm_lin" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nb_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nb" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mlp_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mlp" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6837,13 +7069,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.171717171717098</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6867,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.151515151515101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6875,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12.1212121212121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6883,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15.151515151515101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6891,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17.171717171717098</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6899,7 +7130,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17.171717171717098</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16.161616161616099</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6915,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>19.191919191919101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6923,7 +7154,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>17.171717171717098</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6931,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17.171717171717098</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6945,14 +7176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -6976,7 +7207,7 @@
         <v>1E-10</v>
       </c>
       <c r="B3">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +7215,7 @@
         <v>2.7825594022100001E-9</v>
       </c>
       <c r="B4">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6992,7 +7223,7 @@
         <v>7.7426368268100003E-8</v>
       </c>
       <c r="B5">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +7231,7 @@
         <v>2.1544346900300001E-6</v>
       </c>
       <c r="B6">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7239,7 @@
         <v>5.9948425031899998E-5</v>
       </c>
       <c r="B7">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,7 +7247,7 @@
         <v>1.6681005372E-3</v>
       </c>
       <c r="B8">
-        <v>14.141414141414099</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7255,7 @@
         <v>4.6415888336099997E-2</v>
       </c>
       <c r="B9">
-        <v>22.2222222222222</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7263,7 @@
         <v>1.29154966501</v>
       </c>
       <c r="B10">
-        <v>29.292929292929198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7040,7 +7271,7 @@
         <v>35.938136638000003</v>
       </c>
       <c r="B11">
-        <v>24.2424242424242</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7279,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>19.191919191919101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7300,7 @@
         <v>1E-10</v>
       </c>
       <c r="B19">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7077,7 +7308,7 @@
         <v>2.7825594022100001E-9</v>
       </c>
       <c r="B20">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +7316,7 @@
         <v>7.7426368268100003E-8</v>
       </c>
       <c r="B21">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7093,7 +7324,7 @@
         <v>2.1544346900300001E-6</v>
       </c>
       <c r="B22">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +7332,7 @@
         <v>5.9948425031899998E-5</v>
       </c>
       <c r="B23">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7109,7 +7340,7 @@
         <v>1.6681005372E-3</v>
       </c>
       <c r="B24">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +7348,7 @@
         <v>4.6415888336099997E-2</v>
       </c>
       <c r="B25">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7356,7 @@
         <v>1.29154966501</v>
       </c>
       <c r="B26">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7133,7 +7364,7 @@
         <v>35.938136638000003</v>
       </c>
       <c r="B27">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7372,7 @@
         <v>1000</v>
       </c>
       <c r="B28">
-        <v>24.2424242424242</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7162,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>21.2121212121212</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7170,7 +7401,7 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>24.2424242424242</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7178,7 +7409,7 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>20.202020202020201</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7186,7 +7417,7 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>24.2424242424242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7203,13 +7434,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7225,7 +7456,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>27.272727272727199</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,7 +7464,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>22.2222222222222</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7472,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>14.141414141414099</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7255,12 +7486,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7508,7 @@
         <v>1E-10</v>
       </c>
       <c r="B2">
-        <v>20.202020202020201</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7516,7 @@
         <v>2.7825594022100001E-9</v>
       </c>
       <c r="B3">
-        <v>17.171717171717098</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7524,7 @@
         <v>7.7426368268100003E-8</v>
       </c>
       <c r="B4">
-        <v>22.2222222222222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7532,7 @@
         <v>2.1544346900300001E-6</v>
       </c>
       <c r="B5">
-        <v>14.141414141414099</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7540,7 @@
         <v>5.9948425031899998E-5</v>
       </c>
       <c r="B6">
-        <v>24.2424242424242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7548,7 @@
         <v>1.6681005372E-3</v>
       </c>
       <c r="B7">
-        <v>20.202020202020201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7556,7 @@
         <v>4.6415888336099997E-2</v>
       </c>
       <c r="B8">
-        <v>15.151515151515101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7564,7 @@
         <v>1.29154966501</v>
       </c>
       <c r="B9">
-        <v>18.181818181818102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7572,7 @@
         <v>35.938136638000003</v>
       </c>
       <c r="B10">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7580,7 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>13.1313131313131</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
